--- a/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T08:58:47+00:00</t>
+    <t>2024-02-14T09:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T09:42:21+00:00</t>
+    <t>2024-02-14T17:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-cds-organization-orga-int.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T17:54:26+00:00</t>
+    <t>2024-02-15T15:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
